--- a/consecutive_winning_parties.xlsx
+++ b/consecutive_winning_parties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4459,7 +4459,7 @@
         <v>944390</v>
       </c>
       <c r="E175" t="n">
-        <v>505307</v>
+        <v>484560</v>
       </c>
     </row>
     <row r="176">
@@ -4718,81 +4718,81 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ladakh</t>
+          <t>Lakhimpur</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>59309</v>
+        <v>612543</v>
       </c>
       <c r="E187" t="n">
-        <v>61349</v>
+        <v>776406</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Lakshadweep</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lakhimpur</t>
+          <t>Lakshadweep</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>NCP</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>612543</v>
+        <v>21665</v>
       </c>
       <c r="E188" t="n">
-        <v>776406</v>
+        <v>22851</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lakshadweep</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Lakshadweep</t>
+          <t xml:space="preserve">Latur </t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>NCP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>21665</v>
+        <v>616509</v>
       </c>
       <c r="E189" t="n">
-        <v>22851</v>
+        <v>661495</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Latur </t>
+          <t>Lohardaga</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4801,21 +4801,21 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>616509</v>
+        <v>226666</v>
       </c>
       <c r="E190" t="n">
-        <v>661495</v>
+        <v>371595</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lohardaga</t>
+          <t>Lucknow</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4824,56 +4824,56 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>226666</v>
+        <v>561106</v>
       </c>
       <c r="E191" t="n">
-        <v>371595</v>
+        <v>633026</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Lucknow</t>
+          <t>Ludhiana</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>561106</v>
+        <v>300459</v>
       </c>
       <c r="E192" t="n">
-        <v>633026</v>
+        <v>383795</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ludhiana</t>
+          <t>MANDLA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>300459</v>
+        <v>585720</v>
       </c>
       <c r="E193" t="n">
-        <v>383795</v>
+        <v>737266</v>
       </c>
     </row>
     <row r="194">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MANDLA</t>
+          <t>MANDSOUR</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>585720</v>
+        <v>698335</v>
       </c>
       <c r="E194" t="n">
-        <v>737266</v>
+        <v>847786</v>
       </c>
     </row>
     <row r="195">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MANDSOUR</t>
+          <t>MORENA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4916,21 +4916,21 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>698335</v>
+        <v>375567</v>
       </c>
       <c r="E195" t="n">
-        <v>847786</v>
+        <v>541689</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MORENA</t>
+          <t>Machhlishahr</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4939,21 +4939,21 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>375567</v>
+        <v>438210</v>
       </c>
       <c r="E196" t="n">
-        <v>541689</v>
+        <v>488397</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Machhlishahr</t>
+          <t>Madhubani</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4962,21 +4962,21 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>438210</v>
+        <v>358040</v>
       </c>
       <c r="E197" t="n">
-        <v>488397</v>
+        <v>595843</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Madhubani</t>
+          <t>Maharajganj</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4985,21 +4985,21 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>358040</v>
+        <v>471542</v>
       </c>
       <c r="E198" t="n">
-        <v>595843</v>
+        <v>726349</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Maharajganj</t>
+          <t>Mahesana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5008,113 +5008,113 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>471542</v>
+        <v>580250</v>
       </c>
       <c r="E199" t="n">
-        <v>726349</v>
+        <v>659525</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mahesana</t>
+          <t>Mainpuri</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>580250</v>
+        <v>595918</v>
       </c>
       <c r="E200" t="n">
-        <v>659525</v>
+        <v>524926</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Mainpuri</t>
+          <t>Malappuram</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>IUML</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>595918</v>
+        <v>437723</v>
       </c>
       <c r="E201" t="n">
-        <v>524926</v>
+        <v>589873</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Malappuram</t>
+          <t>Maldaha Dakshin</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>IUML</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>437723</v>
+        <v>380291</v>
       </c>
       <c r="E202" t="n">
-        <v>589873</v>
+        <v>444270</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Maldaha Dakshin</t>
+          <t>Mandi</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>380291</v>
+        <v>362824</v>
       </c>
       <c r="E203" t="n">
-        <v>444270</v>
+        <v>647189</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Mandi</t>
+          <t>Mangaldoi</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5123,21 +5123,21 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>362824</v>
+        <v>486357</v>
       </c>
       <c r="E204" t="n">
-        <v>647189</v>
+        <v>735469</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Mangaldoi</t>
+          <t>Mathura</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5146,102 +5146,102 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>486357</v>
+        <v>574633</v>
       </c>
       <c r="E205" t="n">
-        <v>735469</v>
+        <v>671293</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mathura</t>
+          <t>Mathurapur</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>AITC</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>574633</v>
+        <v>630262</v>
       </c>
       <c r="E206" t="n">
-        <v>671293</v>
+        <v>726828</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Mathurapur</t>
+          <t>Maval</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AITC</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>630262</v>
+        <v>512226</v>
       </c>
       <c r="E207" t="n">
-        <v>726828</v>
+        <v>720663</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Maval</t>
+          <t xml:space="preserve">Mavelikkara </t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>512226</v>
+        <v>402432</v>
       </c>
       <c r="E208" t="n">
-        <v>720663</v>
+        <v>440415</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mavelikkara </t>
+          <t>Meerut</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>402432</v>
+        <v>532981</v>
       </c>
       <c r="E209" t="n">
-        <v>440415</v>
+        <v>586184</v>
       </c>
     </row>
     <row r="210">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Meerut</t>
+          <t>Misrikh</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5261,10 +5261,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>532981</v>
+        <v>412575</v>
       </c>
       <c r="E210" t="n">
-        <v>586184</v>
+        <v>534429</v>
       </c>
     </row>
     <row r="211">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Misrikh</t>
+          <t>Mohanlalganj</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5284,33 +5284,33 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>412575</v>
+        <v>455274</v>
       </c>
       <c r="E211" t="n">
-        <v>534429</v>
+        <v>629999</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mohanlalganj</t>
+          <t>Mumbai   South</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>455274</v>
+        <v>374609</v>
       </c>
       <c r="E212" t="n">
-        <v>629999</v>
+        <v>421937</v>
       </c>
     </row>
     <row r="213">
@@ -5321,19 +5321,19 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mumbai   South</t>
+          <t>Mumbai North</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>374609</v>
+        <v>664004</v>
       </c>
       <c r="E213" t="n">
-        <v>421937</v>
+        <v>706678</v>
       </c>
     </row>
     <row r="214">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mumbai North</t>
+          <t>Mumbai North East</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>664004</v>
+        <v>525285</v>
       </c>
       <c r="E214" t="n">
-        <v>706678</v>
+        <v>514599</v>
       </c>
     </row>
     <row r="215">
@@ -5367,19 +5367,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mumbai North East</t>
+          <t>Mumbai North West</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>525285</v>
+        <v>464820</v>
       </c>
       <c r="E215" t="n">
-        <v>514599</v>
+        <v>570063</v>
       </c>
     </row>
     <row r="216">
@@ -5390,19 +5390,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mumbai North West</t>
+          <t>Mumbai North central</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>464820</v>
+        <v>478535</v>
       </c>
       <c r="E216" t="n">
-        <v>570063</v>
+        <v>486672</v>
       </c>
     </row>
     <row r="217">
@@ -5413,53 +5413,53 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mumbai North central</t>
+          <t>Mumbai South central</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>478535</v>
+        <v>381008</v>
       </c>
       <c r="E217" t="n">
-        <v>486672</v>
+        <v>424913</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Mumbai South central</t>
+          <t>Muzaffarnagar</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>381008</v>
+        <v>653391</v>
       </c>
       <c r="E218" t="n">
-        <v>424913</v>
+        <v>573780</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Muzaffarnagar</t>
+          <t>Muzaffarpur</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5468,21 +5468,21 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>653391</v>
+        <v>469295</v>
       </c>
       <c r="E219" t="n">
-        <v>573780</v>
+        <v>666878</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Muzaffarpur</t>
+          <t>Mysore</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5491,21 +5491,21 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>469295</v>
+        <v>503908</v>
       </c>
       <c r="E220" t="n">
-        <v>666878</v>
+        <v>688974</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>NCT OF Delhi</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t xml:space="preserve">NEW DELHI                     </t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>503908</v>
+        <v>453350</v>
       </c>
       <c r="E221" t="n">
-        <v>688974</v>
+        <v>504206</v>
       </c>
     </row>
     <row r="222">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW DELHI                     </t>
+          <t xml:space="preserve">NORTH EAST DELHI              </t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>453350</v>
+        <v>596125</v>
       </c>
       <c r="E222" t="n">
-        <v>504206</v>
+        <v>787799</v>
       </c>
     </row>
     <row r="223">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">NORTH EAST DELHI              </t>
+          <t xml:space="preserve">NORTH WEST DELHI              </t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5560,21 +5560,21 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>596125</v>
+        <v>629860</v>
       </c>
       <c r="E223" t="n">
-        <v>787799</v>
+        <v>848663</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>NCT OF Delhi</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve">NORTH WEST DELHI              </t>
+          <t xml:space="preserve">Nagpur </t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5583,21 +5583,21 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>629860</v>
+        <v>587767</v>
       </c>
       <c r="E224" t="n">
-        <v>848663</v>
+        <v>660221</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nagpur </t>
+          <t>Nainital-udhamsingh Nagar</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5606,251 +5606,251 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>587767</v>
+        <v>636769</v>
       </c>
       <c r="E225" t="n">
-        <v>660221</v>
+        <v>772195</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Nainital-udhamsingh Nagar</t>
+          <t>Nalanda</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>JD(U)</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>636769</v>
+        <v>321982</v>
       </c>
       <c r="E226" t="n">
-        <v>772195</v>
+        <v>540888</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nalanda</t>
+          <t xml:space="preserve">Nandurbar </t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>JD(U)</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>321982</v>
+        <v>579486</v>
       </c>
       <c r="E227" t="n">
-        <v>540888</v>
+        <v>639136</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nandurbar </t>
+          <t>Nandyal</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>YSRCP</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>579486</v>
+        <v>622411</v>
       </c>
       <c r="E228" t="n">
-        <v>639136</v>
+        <v>720888</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Nandyal</t>
+          <t>Nashik</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>YSRCP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>622411</v>
+        <v>494735</v>
       </c>
       <c r="E229" t="n">
-        <v>720888</v>
+        <v>563599</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Nashik</t>
+          <t>Navsari</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>494735</v>
+        <v>820831</v>
       </c>
       <c r="E230" t="n">
-        <v>563599</v>
+        <v>972739</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Navsari</t>
+          <t>Nellore</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>YSRCP</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>820831</v>
+        <v>576396</v>
       </c>
       <c r="E231" t="n">
-        <v>972739</v>
+        <v>683830</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Nellore</t>
+          <t>North Goa</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>YSRCP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>576396</v>
+        <v>237903</v>
       </c>
       <c r="E232" t="n">
-        <v>683830</v>
+        <v>244844</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>North Goa</t>
+          <t xml:space="preserve">Ongole </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>YSRCP</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>237903</v>
+        <v>589861</v>
       </c>
       <c r="E233" t="n">
-        <v>244844</v>
+        <v>739202</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ongole </t>
+          <t>Osmanabad</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>YSRCP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>589861</v>
+        <v>607699</v>
       </c>
       <c r="E234" t="n">
-        <v>739202</v>
+        <v>596640</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Osmanabad</t>
+          <t>Palamau</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>607699</v>
+        <v>476513</v>
       </c>
       <c r="E235" t="n">
-        <v>596640</v>
+        <v>755659</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Palamau</t>
+          <t>Pali</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5859,21 +5859,21 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>476513</v>
+        <v>711772</v>
       </c>
       <c r="E236" t="n">
-        <v>755659</v>
+        <v>900149</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Pali</t>
+          <t>Panchmahal</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5882,56 +5882,56 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>711772</v>
+        <v>508274</v>
       </c>
       <c r="E237" t="n">
-        <v>900149</v>
+        <v>732136</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Panchmahal</t>
+          <t>Parbhani</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>508274</v>
+        <v>578455</v>
       </c>
       <c r="E238" t="n">
-        <v>732136</v>
+        <v>538941</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Parbhani</t>
+          <t>Paschim Champaran</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>578455</v>
+        <v>371232</v>
       </c>
       <c r="E239" t="n">
-        <v>538941</v>
+        <v>603706</v>
       </c>
     </row>
     <row r="240">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Paschim Champaran</t>
+          <t>Pataliputra</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5951,21 +5951,21 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>371232</v>
+        <v>383262</v>
       </c>
       <c r="E240" t="n">
-        <v>603706</v>
+        <v>509557</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pataliputra</t>
+          <t>Patan</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5974,67 +5974,67 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>383262</v>
+        <v>518538</v>
       </c>
       <c r="E241" t="n">
-        <v>509557</v>
+        <v>633368</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Patan</t>
+          <t>Pathanamthitta</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>518538</v>
+        <v>358842</v>
       </c>
       <c r="E242" t="n">
-        <v>633368</v>
+        <v>380927</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Pathanamthitta</t>
+          <t>Patna Sahib</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>358842</v>
+        <v>485905</v>
       </c>
       <c r="E243" t="n">
-        <v>380927</v>
+        <v>607506</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Patna Sahib</t>
+          <t>Phulpur</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6043,10 +6043,10 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>485905</v>
+        <v>503564</v>
       </c>
       <c r="E244" t="n">
-        <v>607506</v>
+        <v>544701</v>
       </c>
     </row>
     <row r="245">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Phulpur</t>
+          <t>Pilibhit</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6066,67 +6066,67 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>503564</v>
+        <v>546934</v>
       </c>
       <c r="E245" t="n">
-        <v>544701</v>
+        <v>704549</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pilibhit</t>
+          <t>Ponnani</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>IUML</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>546934</v>
+        <v>378503</v>
       </c>
       <c r="E246" t="n">
-        <v>704549</v>
+        <v>521824</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ponnani</t>
+          <t>Porbandar</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>IUML</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>378503</v>
+        <v>508437</v>
       </c>
       <c r="E247" t="n">
-        <v>521824</v>
+        <v>563881</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Porbandar</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6135,33 +6135,33 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>508437</v>
+        <v>569825</v>
       </c>
       <c r="E248" t="n">
-        <v>563881</v>
+        <v>632835</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Purnia</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>JD(U)</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>569825</v>
+        <v>418826</v>
       </c>
       <c r="E249" t="n">
-        <v>632835</v>
+        <v>632924</v>
       </c>
     </row>
     <row r="250">
@@ -6172,30 +6172,30 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Purnia</t>
+          <t>Purvi Champaran</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>JD(U)</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>418826</v>
+        <v>400452</v>
       </c>
       <c r="E250" t="n">
-        <v>632924</v>
+        <v>577787</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Purvi Champaran</t>
+          <t>RAJGARH</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6204,10 +6204,10 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>400452</v>
+        <v>596727</v>
       </c>
       <c r="E251" t="n">
-        <v>577787</v>
+        <v>823824</v>
       </c>
     </row>
     <row r="252">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>RAJGARH</t>
+          <t>RATLAM</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>596727</v>
+        <v>545980</v>
       </c>
       <c r="E252" t="n">
-        <v>823824</v>
+        <v>696103</v>
       </c>
     </row>
     <row r="253">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>RATLAM</t>
+          <t>REWA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6250,194 +6250,194 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>545980</v>
+        <v>383320</v>
       </c>
       <c r="E253" t="n">
-        <v>696103</v>
+        <v>583769</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>REWA</t>
+          <t>Rae Bareli</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>383320</v>
+        <v>526434</v>
       </c>
       <c r="E254" t="n">
-        <v>583769</v>
+        <v>534918</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Rae Bareli</t>
+          <t>Rajampet</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>YSRCP</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>526434</v>
+        <v>601752</v>
       </c>
       <c r="E255" t="n">
-        <v>534918</v>
+        <v>702211</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Rajampet</t>
+          <t>Rajkot</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>YSRCP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>601752</v>
+        <v>621524</v>
       </c>
       <c r="E256" t="n">
-        <v>702211</v>
+        <v>758645</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Rajkot</t>
+          <t>Rajmahal</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>JMM</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>621524</v>
+        <v>379507</v>
       </c>
       <c r="E257" t="n">
-        <v>758645</v>
+        <v>507830</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Rajmahal</t>
+          <t>Rajsamand</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>JMM</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>379507</v>
+        <v>644794</v>
       </c>
       <c r="E258" t="n">
-        <v>507830</v>
+        <v>863039</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Rajsamand</t>
+          <t xml:space="preserve">Ramtek </t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>644794</v>
+        <v>519892</v>
       </c>
       <c r="E259" t="n">
-        <v>863039</v>
+        <v>597126</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ramtek </t>
+          <t>Ranchi</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>519892</v>
+        <v>448729</v>
       </c>
       <c r="E260" t="n">
-        <v>597126</v>
+        <v>706510</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ranchi</t>
+          <t>Ratnagiri - sindhudurg</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>448729</v>
+        <v>493088</v>
       </c>
       <c r="E261" t="n">
-        <v>706510</v>
+        <v>458022</v>
       </c>
     </row>
     <row r="262">
@@ -6448,30 +6448,30 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ratnagiri - sindhudurg</t>
+          <t>Raver</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>493088</v>
+        <v>605452</v>
       </c>
       <c r="E262" t="n">
-        <v>458022</v>
+        <v>655386</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Raver</t>
+          <t>SAGAR</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6480,10 +6480,10 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>605452</v>
+        <v>482580</v>
       </c>
       <c r="E263" t="n">
-        <v>655386</v>
+        <v>646231</v>
       </c>
     </row>
     <row r="264">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SAGAR</t>
+          <t>SATNA</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>482580</v>
+        <v>375288</v>
       </c>
       <c r="E264" t="n">
-        <v>646231</v>
+        <v>588753</v>
       </c>
     </row>
     <row r="265">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SATNA</t>
+          <t>SHAHDOL</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>375288</v>
+        <v>525419</v>
       </c>
       <c r="E265" t="n">
-        <v>588753</v>
+        <v>747977</v>
       </c>
     </row>
     <row r="266">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SHAHDOL</t>
+          <t>SIDHI</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6549,21 +6549,21 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>525419</v>
+        <v>475678</v>
       </c>
       <c r="E266" t="n">
-        <v>747977</v>
+        <v>698342</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>NCT OF Delhi</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SIDHI</t>
+          <t xml:space="preserve">SOUTH DELHI                   </t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6572,21 +6572,21 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>475678</v>
+        <v>497980</v>
       </c>
       <c r="E267" t="n">
-        <v>698342</v>
+        <v>687014</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>NCT OF Delhi</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOUTH DELHI                   </t>
+          <t>Sabarkantha</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6595,21 +6595,21 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>497980</v>
+        <v>552205</v>
       </c>
       <c r="E268" t="n">
-        <v>687014</v>
+        <v>701983</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Sabarkantha</t>
+          <t>Salempur</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6618,113 +6618,113 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>552205</v>
+        <v>392213</v>
       </c>
       <c r="E269" t="n">
-        <v>701983</v>
+        <v>467940</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Salempur</t>
+          <t>Samastipur (SC)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>LJP</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>392213</v>
+        <v>270401</v>
       </c>
       <c r="E270" t="n">
-        <v>467940</v>
+        <v>562443</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Samastipur (SC)</t>
+          <t>Sangli</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>LJP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>270401</v>
+        <v>611563</v>
       </c>
       <c r="E271" t="n">
-        <v>562443</v>
+        <v>508995</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sangli</t>
+          <t>Sangrur</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>AAAP</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>611563</v>
+        <v>533237</v>
       </c>
       <c r="E272" t="n">
-        <v>508995</v>
+        <v>413561</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sangrur</t>
+          <t>Sant Kabir Nagar</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>AAAP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>533237</v>
+        <v>348892</v>
       </c>
       <c r="E273" t="n">
-        <v>413561</v>
+        <v>467543</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Sant Kabir Nagar</t>
+          <t>Saran</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6733,10 +6733,10 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>348892</v>
+        <v>355120</v>
       </c>
       <c r="E274" t="n">
-        <v>467543</v>
+        <v>499986</v>
       </c>
     </row>
     <row r="275">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Saran</t>
+          <t>Sasaram (SC)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6756,67 +6756,67 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>355120</v>
+        <v>366087</v>
       </c>
       <c r="E275" t="n">
-        <v>499986</v>
+        <v>494800</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Sasaram (SC)</t>
+          <t>Satara</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>NCP</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>366087</v>
+        <v>522531</v>
       </c>
       <c r="E276" t="n">
-        <v>494800</v>
+        <v>579026</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Satara</t>
+          <t>Shahjahanpur</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>NCP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>522531</v>
+        <v>525132</v>
       </c>
       <c r="E277" t="n">
-        <v>579026</v>
+        <v>688990</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Shahjahanpur</t>
+          <t>Sheohar</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6825,67 +6825,67 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>525132</v>
+        <v>372506</v>
       </c>
       <c r="E278" t="n">
-        <v>688990</v>
+        <v>608678</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Sheohar</t>
+          <t>Shillong</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>372506</v>
+        <v>209340</v>
       </c>
       <c r="E279" t="n">
-        <v>608678</v>
+        <v>419689</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Shillong</t>
+          <t>Shimla</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>209340</v>
+        <v>385973</v>
       </c>
       <c r="E280" t="n">
-        <v>419689</v>
+        <v>606182</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Shimla</t>
+          <t>Shimoga</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6894,67 +6894,67 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>385973</v>
+        <v>606216</v>
       </c>
       <c r="E281" t="n">
-        <v>606182</v>
+        <v>729872</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shirdi</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>606216</v>
+        <v>532936</v>
       </c>
       <c r="E282" t="n">
-        <v>729872</v>
+        <v>486820</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Shirdi</t>
+          <t>Sikar</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>532936</v>
+        <v>499428</v>
       </c>
       <c r="E283" t="n">
-        <v>486820</v>
+        <v>772104</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Sikar</t>
+          <t>Sitapur</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6963,21 +6963,21 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>499428</v>
+        <v>417546</v>
       </c>
       <c r="E284" t="n">
-        <v>772104</v>
+        <v>514528</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Sitapur</t>
+          <t xml:space="preserve">Solapur </t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6986,21 +6986,21 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>417546</v>
+        <v>517879</v>
       </c>
       <c r="E285" t="n">
-        <v>514528</v>
+        <v>524985</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Solapur </t>
+          <t>Sonipat</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -7009,90 +7009,90 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>517879</v>
+        <v>347203</v>
       </c>
       <c r="E286" t="n">
-        <v>524985</v>
+        <v>587664</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sonipat</t>
+          <t>Srerampur</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>AITC</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>347203</v>
+        <v>514933</v>
       </c>
       <c r="E287" t="n">
-        <v>587664</v>
+        <v>637707</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Srerampur</t>
+          <t>Srikakulam</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>AITC</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>514933</v>
+        <v>556545</v>
       </c>
       <c r="E288" t="n">
-        <v>637707</v>
+        <v>534544</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Srikakulam</t>
+          <t>Sultanpur</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>556545</v>
+        <v>410348</v>
       </c>
       <c r="E289" t="n">
-        <v>534544</v>
+        <v>459196</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sultanpur</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>410348</v>
+        <v>718412</v>
       </c>
       <c r="E290" t="n">
-        <v>459196</v>
+        <v>795651</v>
       </c>
     </row>
     <row r="291">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Surendranagar</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -7124,21 +7124,21 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>718412</v>
+        <v>529003</v>
       </c>
       <c r="E291" t="n">
-        <v>795651</v>
+        <v>631844</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Surendranagar</t>
+          <t>TIKAMGARH</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -7147,21 +7147,21 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>529003</v>
+        <v>422979</v>
       </c>
       <c r="E292" t="n">
-        <v>631844</v>
+        <v>672248</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TIKAMGARH</t>
+          <t>TONK-SAWAI MADHOPUR</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -7170,67 +7170,67 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>422979</v>
+        <v>548537</v>
       </c>
       <c r="E293" t="n">
-        <v>672248</v>
+        <v>644319</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TONK-SAWAI MADHOPUR</t>
+          <t>Tamluk</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>AITC</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>548537</v>
+        <v>716928</v>
       </c>
       <c r="E294" t="n">
-        <v>644319</v>
+        <v>724433</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tamluk</t>
+          <t>Tehri Garhwal</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>AITC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>716928</v>
+        <v>446733</v>
       </c>
       <c r="E295" t="n">
-        <v>724433</v>
+        <v>565333</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tehri Garhwal</t>
+          <t>Tezpur</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -7239,159 +7239,159 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>446733</v>
+        <v>446511</v>
       </c>
       <c r="E296" t="n">
-        <v>565333</v>
+        <v>684166</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tezpur</t>
+          <t>Thane</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>446511</v>
+        <v>595364</v>
       </c>
       <c r="E297" t="n">
-        <v>684166</v>
+        <v>740969</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Thane</t>
+          <t xml:space="preserve">Theni </t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>ADMK</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>595364</v>
+        <v>571254</v>
       </c>
       <c r="E298" t="n">
-        <v>740969</v>
+        <v>504813</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theni </t>
+          <t>Thiruvananthapuram</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>ADMK</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>571254</v>
+        <v>297806</v>
       </c>
       <c r="E299" t="n">
-        <v>504813</v>
+        <v>416131</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Thiruvananthapuram</t>
+          <t xml:space="preserve">Tirupati </t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>YSRCP</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>297806</v>
+        <v>580376</v>
       </c>
       <c r="E300" t="n">
-        <v>416131</v>
+        <v>722877</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tirupati </t>
+          <t xml:space="preserve">Tura </t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>YSRCP</t>
+          <t>NPEP</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>580376</v>
+        <v>239301</v>
       </c>
       <c r="E301" t="n">
-        <v>722877</v>
+        <v>304455</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tura </t>
+          <t>UJJAIN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>NPEP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>239301</v>
+        <v>641101</v>
       </c>
       <c r="E302" t="n">
-        <v>304455</v>
+        <v>791663</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>UJJAIN</t>
+          <t>Udaipur</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7400,21 +7400,21 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>641101</v>
+        <v>660373</v>
       </c>
       <c r="E303" t="n">
-        <v>791663</v>
+        <v>871548</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Udaipur</t>
+          <t>Udhampur</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7423,21 +7423,21 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>660373</v>
+        <v>487369</v>
       </c>
       <c r="E304" t="n">
-        <v>871548</v>
+        <v>724311</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Udhampur</t>
+          <t>Udupi Chikmagalur</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7446,21 +7446,21 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>487369</v>
+        <v>581168</v>
       </c>
       <c r="E305" t="n">
-        <v>724311</v>
+        <v>718916</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Udupi Chikmagalur</t>
+          <t>Ujiarpur</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7469,67 +7469,67 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>581168</v>
+        <v>317352</v>
       </c>
       <c r="E306" t="n">
-        <v>718916</v>
+        <v>543906</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ujiarpur</t>
+          <t>Uluberia</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>AITC</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>317352</v>
+        <v>570785</v>
       </c>
       <c r="E307" t="n">
-        <v>543906</v>
+        <v>694945</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Uluberia</t>
+          <t>Unnao</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>AITC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>570785</v>
+        <v>518834</v>
       </c>
       <c r="E308" t="n">
-        <v>694945</v>
+        <v>703507</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Unnao</t>
+          <t>Uttara Kannada</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7538,21 +7538,21 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>518834</v>
+        <v>546939</v>
       </c>
       <c r="E309" t="n">
-        <v>703507</v>
+        <v>786042</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Uttara Kannada</t>
+          <t>VIDISHA</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7561,113 +7561,113 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>546939</v>
+        <v>714348</v>
       </c>
       <c r="E310" t="n">
-        <v>786042</v>
+        <v>853022</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>VIDISHA</t>
+          <t>Vadakara</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>714348</v>
+        <v>416479</v>
       </c>
       <c r="E311" t="n">
-        <v>853022</v>
+        <v>526755</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Vadakara</t>
+          <t>Vadodara</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>416479</v>
+        <v>845464</v>
       </c>
       <c r="E312" t="n">
-        <v>526755</v>
+        <v>883719</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Vadodara</t>
+          <t>Vaishali</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>LJP</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>845464</v>
+        <v>305450</v>
       </c>
       <c r="E313" t="n">
-        <v>883719</v>
+        <v>568215</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Vaishali</t>
+          <t>Valsad</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>LJP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>305450</v>
+        <v>617772</v>
       </c>
       <c r="E314" t="n">
-        <v>568215</v>
+        <v>771980</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Valsad</t>
+          <t>Varanasi</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7676,67 +7676,67 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>617772</v>
+        <v>581022</v>
       </c>
       <c r="E315" t="n">
-        <v>771980</v>
+        <v>674664</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Varanasi</t>
+          <t>Vijayawada</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>581022</v>
+        <v>592953</v>
       </c>
       <c r="E316" t="n">
-        <v>674664</v>
+        <v>575498</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>NCT OF Delhi</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Vijayawada</t>
+          <t xml:space="preserve">WEST DELHI                    </t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>BJP</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>592953</v>
+        <v>651395</v>
       </c>
       <c r="E317" t="n">
-        <v>575498</v>
+        <v>865648</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>NCT OF Delhi</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEST DELHI                    </t>
+          <t>Wardha</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7745,78 +7745,55 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>651395</v>
+        <v>537518</v>
       </c>
       <c r="E318" t="n">
-        <v>865648</v>
+        <v>578364</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Wardha</t>
+          <t>Wayanad</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>BJP</t>
+          <t>INC</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>537518</v>
+        <v>377035</v>
       </c>
       <c r="E319" t="n">
-        <v>578364</v>
+        <v>706367</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Wayanad</t>
+          <t>Yavatmal-Washim</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>INC</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>377035</v>
+        <v>477905</v>
       </c>
       <c r="E320" t="n">
-        <v>706367</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Yavatmal-Washim</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>SHS</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>477905</v>
-      </c>
-      <c r="E321" t="n">
         <v>542098</v>
       </c>
     </row>
